--- a/src/test/java/APIAutomationFramework/Resourses/TokenDataSheet.xlsx
+++ b/src/test/java/APIAutomationFramework/Resourses/TokenDataSheet.xlsx
@@ -28,7 +28,7 @@
     <t>Riya</t>
   </si>
   <si>
-    <t>QA</t>
+    <t>Qa</t>
   </si>
 </sst>
 </file>
